--- a/biology/Histoire de la zoologie et de la botanique/Carl_Robert_Osten-Sacken/Carl_Robert_Osten-Sacken.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_Robert_Osten-Sacken/Carl_Robert_Osten-Sacken.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Robert Osten-Sacken (ou Karl Robert Romanovitch, baron von der Osten-Sacken) est un entomologiste germanophone, sujet de l'Empire russe, issu de la noblesse germano-balte. Il est né le 21 août 1828 à Saint-Pétersbourg et mort le 20 mai 1906 à Heidelberg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il découvre l’étude des insectes auprès d’un jeune noble russe passionné d’entomologie. Durant ses études à Saint-Pétersbourg, il collectionne des insectes appartenant à tous les ordres à l’exception des lépidoptères. En 1856, le baron von der Osten-Sacken est nommé secrétaire à l’ambassade russe de Washington. C’est durant son voyage qu’il rencontre Hermann August Hagen (1817-1893) avec lequel il noue une longue amitié.
 Jusqu’en 1862, il est secrétaire auprès de l’ambassade située à Washington puis de 1862 à 1871, consul général à New York. Osten-Sacken démissionne en 1871 et entreprend plusieurs voyages en Europe avant de revenir aux États-Unis où il demeure jusqu’en 1877. Il s’installe alors à Cambridge pour travailler sur les collections du Muséum de zoologie comparative, il y retrouve un groupe d’entomologistes dont H.A. Hagen.
